--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>Unidad de medida: Tasas / porcentaje</t>
   </si>
   <si>
-    <t>Última actualización: enero de 2022</t>
-  </si>
-  <si>
     <t>Periodicidad: mensual</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Inflación mensual respecto al mismo mes del año anterior por grupo de objeto de gasto</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,6 +205,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AD24"/>
+  <dimension ref="A8:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -546,37 +547,37 @@
     <col min="30" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -667,8 +668,11 @@
       <c r="AD15" s="4">
         <v>44531</v>
       </c>
+      <c r="AE15" s="4">
+        <v>44562</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="AD16" s="9">
         <v>0.11093463653023816</v>
       </c>
+      <c r="AE16" s="10">
+        <v>0.10939453242868091</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -851,10 +858,13 @@
       <c r="AD17" s="9">
         <v>3.9118985362948777E-2</v>
       </c>
+      <c r="AE17" s="10">
+        <v>3.7181392479600728E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>3.5854034947976343E-2</v>
@@ -943,8 +953,11 @@
       <c r="AD18" s="9">
         <v>7.5305037117044504E-2</v>
       </c>
+      <c r="AE18" s="10">
+        <v>6.9312849870468707E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1035,8 +1048,11 @@
       <c r="AD19" s="9">
         <v>5.5142083897158356E-2</v>
       </c>
+      <c r="AE19" s="10">
+        <v>4.2239365978789412E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="AD20" s="9">
         <v>7.5862436115843312E-2</v>
       </c>
+      <c r="AE20" s="10">
+        <v>7.0454426240973422E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="AD21" s="9">
         <v>2.8795836470913549E-2</v>
       </c>
+      <c r="AE21" s="10">
+        <v>2.3144976610361745E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -1311,8 +1333,11 @@
       <c r="AD22" s="9">
         <v>2.7235416186303985E-2</v>
       </c>
+      <c r="AE22" s="10">
+        <v>2.6111380499720838E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1403,8 +1428,11 @@
       <c r="AD23" s="9">
         <v>0.10292235798174354</v>
       </c>
+      <c r="AE23" s="10">
+        <v>8.5388292511534569E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1494,6 +1522,9 @@
       </c>
       <c r="AD24" s="9">
         <v>5.1153697214692651E-2</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>4.192141365940949E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Inflación mensual respecto al mismo mes del año anterior por grupo de objeto de gasto</t>
   </si>
   <si>
-    <t>Última actualización:  03/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 08/2019</t>
   </si>
   <si>
@@ -168,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 02/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  04/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03/2022</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AF24"/>
+  <dimension ref="A8:EI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -639,135 +642,244 @@
     <col min="30" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AD15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AF15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AF15" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+      <c r="CA15" s="4"/>
+      <c r="CB15" s="4"/>
+      <c r="CC15" s="4"/>
+      <c r="CD15" s="4"/>
+      <c r="CE15" s="4"/>
+      <c r="CF15" s="4"/>
+      <c r="CG15" s="4"/>
+      <c r="CH15" s="4"/>
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="4"/>
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="4"/>
+      <c r="CM15" s="4"/>
+      <c r="CN15" s="4"/>
+      <c r="CO15" s="4"/>
+      <c r="CP15" s="4"/>
+      <c r="CQ15" s="4"/>
+      <c r="CR15" s="4"/>
+      <c r="CS15" s="4"/>
+      <c r="CT15" s="4"/>
+      <c r="CU15" s="4"/>
+      <c r="CV15" s="4"/>
+      <c r="CW15" s="4"/>
+      <c r="CX15" s="4"/>
+      <c r="CY15" s="4"/>
+      <c r="CZ15" s="4"/>
+      <c r="DA15" s="4"/>
+      <c r="DB15" s="4"/>
+      <c r="DC15" s="4"/>
+      <c r="DD15" s="4"/>
+      <c r="DE15" s="4"/>
+      <c r="DF15" s="4"/>
+      <c r="DG15" s="4"/>
+      <c r="DH15" s="4"/>
+      <c r="DI15" s="4"/>
+      <c r="DJ15" s="4"/>
+      <c r="DK15" s="4"/>
+      <c r="DL15" s="4"/>
+      <c r="DM15" s="4"/>
+      <c r="DN15" s="4"/>
+      <c r="DO15" s="4"/>
+      <c r="DP15" s="4"/>
+      <c r="DQ15" s="4"/>
+      <c r="DR15" s="4"/>
+      <c r="DS15" s="4"/>
+      <c r="DT15" s="4"/>
+      <c r="DU15" s="4"/>
+      <c r="DV15" s="4"/>
+      <c r="DW15" s="4"/>
+      <c r="DX15" s="4"/>
+      <c r="DY15" s="4"/>
+      <c r="DZ15" s="4"/>
+      <c r="EA15" s="4"/>
+      <c r="EB15" s="4"/>
+      <c r="EC15" s="4"/>
+      <c r="ED15" s="4"/>
+      <c r="EE15" s="4"/>
+      <c r="EF15" s="4"/>
+      <c r="EG15" s="4"/>
+      <c r="EH15" s="4"/>
+      <c r="EI15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -864,8 +976,117 @@
       <c r="AF16" s="9">
         <v>7.4082411843100493E-2</v>
       </c>
+      <c r="AG16" s="9">
+        <v>7.780936036325925E-2</v>
+      </c>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
+      <c r="CT16" s="9"/>
+      <c r="CU16" s="9"/>
+      <c r="CV16" s="9"/>
+      <c r="CW16" s="9"/>
+      <c r="CX16" s="9"/>
+      <c r="CY16" s="9"/>
+      <c r="CZ16" s="9"/>
+      <c r="DA16" s="9"/>
+      <c r="DB16" s="9"/>
+      <c r="DC16" s="9"/>
+      <c r="DD16" s="9"/>
+      <c r="DE16" s="9"/>
+      <c r="DF16" s="9"/>
+      <c r="DG16" s="9"/>
+      <c r="DH16" s="9"/>
+      <c r="DI16" s="9"/>
+      <c r="DJ16" s="9"/>
+      <c r="DK16" s="9"/>
+      <c r="DL16" s="9"/>
+      <c r="DM16" s="9"/>
+      <c r="DN16" s="9"/>
+      <c r="DO16" s="9"/>
+      <c r="DP16" s="9"/>
+      <c r="DQ16" s="9"/>
+      <c r="DR16" s="9"/>
+      <c r="DS16" s="9"/>
+      <c r="DT16" s="9"/>
+      <c r="DU16" s="9"/>
+      <c r="DV16" s="9"/>
+      <c r="DW16" s="9"/>
+      <c r="DX16" s="9"/>
+      <c r="DY16" s="9"/>
+      <c r="DZ16" s="9"/>
+      <c r="EA16" s="9"/>
+      <c r="EB16" s="9"/>
+      <c r="EC16" s="9"/>
+      <c r="ED16" s="9"/>
+      <c r="EE16" s="9"/>
+      <c r="EF16" s="9"/>
+      <c r="EG16" s="9"/>
+      <c r="EH16" s="9"/>
+      <c r="EI16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -962,8 +1183,117 @@
       <c r="AF17" s="9">
         <v>0.12206398953023823</v>
       </c>
+      <c r="AG17" s="9">
+        <v>0.12412314552782777</v>
+      </c>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="9"/>
+      <c r="CM17" s="9"/>
+      <c r="CN17" s="9"/>
+      <c r="CO17" s="9"/>
+      <c r="CP17" s="9"/>
+      <c r="CQ17" s="9"/>
+      <c r="CR17" s="9"/>
+      <c r="CS17" s="9"/>
+      <c r="CT17" s="9"/>
+      <c r="CU17" s="9"/>
+      <c r="CV17" s="9"/>
+      <c r="CW17" s="9"/>
+      <c r="CX17" s="9"/>
+      <c r="CY17" s="9"/>
+      <c r="CZ17" s="9"/>
+      <c r="DA17" s="9"/>
+      <c r="DB17" s="9"/>
+      <c r="DC17" s="9"/>
+      <c r="DD17" s="9"/>
+      <c r="DE17" s="9"/>
+      <c r="DF17" s="9"/>
+      <c r="DG17" s="9"/>
+      <c r="DH17" s="9"/>
+      <c r="DI17" s="9"/>
+      <c r="DJ17" s="9"/>
+      <c r="DK17" s="9"/>
+      <c r="DL17" s="9"/>
+      <c r="DM17" s="9"/>
+      <c r="DN17" s="9"/>
+      <c r="DO17" s="9"/>
+      <c r="DP17" s="9"/>
+      <c r="DQ17" s="9"/>
+      <c r="DR17" s="9"/>
+      <c r="DS17" s="9"/>
+      <c r="DT17" s="9"/>
+      <c r="DU17" s="9"/>
+      <c r="DV17" s="9"/>
+      <c r="DW17" s="9"/>
+      <c r="DX17" s="9"/>
+      <c r="DY17" s="9"/>
+      <c r="DZ17" s="9"/>
+      <c r="EA17" s="9"/>
+      <c r="EB17" s="9"/>
+      <c r="EC17" s="9"/>
+      <c r="ED17" s="9"/>
+      <c r="EE17" s="9"/>
+      <c r="EF17" s="9"/>
+      <c r="EG17" s="9"/>
+      <c r="EH17" s="9"/>
+      <c r="EI17" s="9"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1390,117 @@
       <c r="AF18" s="9">
         <v>1.953125E-2</v>
       </c>
+      <c r="AG18" s="9">
+        <v>3.6267365064905466E-2</v>
+      </c>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
+      <c r="CM18" s="9"/>
+      <c r="CN18" s="9"/>
+      <c r="CO18" s="9"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
+      <c r="CS18" s="9"/>
+      <c r="CT18" s="9"/>
+      <c r="CU18" s="9"/>
+      <c r="CV18" s="9"/>
+      <c r="CW18" s="9"/>
+      <c r="CX18" s="9"/>
+      <c r="CY18" s="9"/>
+      <c r="CZ18" s="9"/>
+      <c r="DA18" s="9"/>
+      <c r="DB18" s="9"/>
+      <c r="DC18" s="9"/>
+      <c r="DD18" s="9"/>
+      <c r="DE18" s="9"/>
+      <c r="DF18" s="9"/>
+      <c r="DG18" s="9"/>
+      <c r="DH18" s="9"/>
+      <c r="DI18" s="9"/>
+      <c r="DJ18" s="9"/>
+      <c r="DK18" s="9"/>
+      <c r="DL18" s="9"/>
+      <c r="DM18" s="9"/>
+      <c r="DN18" s="9"/>
+      <c r="DO18" s="9"/>
+      <c r="DP18" s="9"/>
+      <c r="DQ18" s="9"/>
+      <c r="DR18" s="9"/>
+      <c r="DS18" s="9"/>
+      <c r="DT18" s="9"/>
+      <c r="DU18" s="9"/>
+      <c r="DV18" s="9"/>
+      <c r="DW18" s="9"/>
+      <c r="DX18" s="9"/>
+      <c r="DY18" s="9"/>
+      <c r="DZ18" s="9"/>
+      <c r="EA18" s="9"/>
+      <c r="EB18" s="9"/>
+      <c r="EC18" s="9"/>
+      <c r="ED18" s="9"/>
+      <c r="EE18" s="9"/>
+      <c r="EF18" s="9"/>
+      <c r="EG18" s="9"/>
+      <c r="EH18" s="9"/>
+      <c r="EI18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1597,117 @@
       <c r="AF19" s="9">
         <v>4.3108940327033274E-2</v>
       </c>
+      <c r="AG19" s="9">
+        <v>4.7439318613832215E-2</v>
+      </c>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+      <c r="CL19" s="9"/>
+      <c r="CM19" s="9"/>
+      <c r="CN19" s="9"/>
+      <c r="CO19" s="9"/>
+      <c r="CP19" s="9"/>
+      <c r="CQ19" s="9"/>
+      <c r="CR19" s="9"/>
+      <c r="CS19" s="9"/>
+      <c r="CT19" s="9"/>
+      <c r="CU19" s="9"/>
+      <c r="CV19" s="9"/>
+      <c r="CW19" s="9"/>
+      <c r="CX19" s="9"/>
+      <c r="CY19" s="9"/>
+      <c r="CZ19" s="9"/>
+      <c r="DA19" s="9"/>
+      <c r="DB19" s="9"/>
+      <c r="DC19" s="9"/>
+      <c r="DD19" s="9"/>
+      <c r="DE19" s="9"/>
+      <c r="DF19" s="9"/>
+      <c r="DG19" s="9"/>
+      <c r="DH19" s="9"/>
+      <c r="DI19" s="9"/>
+      <c r="DJ19" s="9"/>
+      <c r="DK19" s="9"/>
+      <c r="DL19" s="9"/>
+      <c r="DM19" s="9"/>
+      <c r="DN19" s="9"/>
+      <c r="DO19" s="9"/>
+      <c r="DP19" s="9"/>
+      <c r="DQ19" s="9"/>
+      <c r="DR19" s="9"/>
+      <c r="DS19" s="9"/>
+      <c r="DT19" s="9"/>
+      <c r="DU19" s="9"/>
+      <c r="DV19" s="9"/>
+      <c r="DW19" s="9"/>
+      <c r="DX19" s="9"/>
+      <c r="DY19" s="9"/>
+      <c r="DZ19" s="9"/>
+      <c r="EA19" s="9"/>
+      <c r="EB19" s="9"/>
+      <c r="EC19" s="9"/>
+      <c r="ED19" s="9"/>
+      <c r="EE19" s="9"/>
+      <c r="EF19" s="9"/>
+      <c r="EG19" s="9"/>
+      <c r="EH19" s="9"/>
+      <c r="EI19" s="9"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1256,8 +1804,117 @@
       <c r="AF20" s="9">
         <v>4.0542606037447415E-2</v>
       </c>
+      <c r="AG20" s="9">
+        <v>6.3097824015853066E-2</v>
+      </c>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
+      <c r="CU20" s="9"/>
+      <c r="CV20" s="9"/>
+      <c r="CW20" s="9"/>
+      <c r="CX20" s="9"/>
+      <c r="CY20" s="9"/>
+      <c r="CZ20" s="9"/>
+      <c r="DA20" s="9"/>
+      <c r="DB20" s="9"/>
+      <c r="DC20" s="9"/>
+      <c r="DD20" s="9"/>
+      <c r="DE20" s="9"/>
+      <c r="DF20" s="9"/>
+      <c r="DG20" s="9"/>
+      <c r="DH20" s="9"/>
+      <c r="DI20" s="9"/>
+      <c r="DJ20" s="9"/>
+      <c r="DK20" s="9"/>
+      <c r="DL20" s="9"/>
+      <c r="DM20" s="9"/>
+      <c r="DN20" s="9"/>
+      <c r="DO20" s="9"/>
+      <c r="DP20" s="9"/>
+      <c r="DQ20" s="9"/>
+      <c r="DR20" s="9"/>
+      <c r="DS20" s="9"/>
+      <c r="DT20" s="9"/>
+      <c r="DU20" s="9"/>
+      <c r="DV20" s="9"/>
+      <c r="DW20" s="9"/>
+      <c r="DX20" s="9"/>
+      <c r="DY20" s="9"/>
+      <c r="DZ20" s="9"/>
+      <c r="EA20" s="9"/>
+      <c r="EB20" s="9"/>
+      <c r="EC20" s="9"/>
+      <c r="ED20" s="9"/>
+      <c r="EE20" s="9"/>
+      <c r="EF20" s="9"/>
+      <c r="EG20" s="9"/>
+      <c r="EH20" s="9"/>
+      <c r="EI20" s="9"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1354,8 +2011,117 @@
       <c r="AF21" s="9">
         <v>3.8363639693090867E-2</v>
       </c>
+      <c r="AG21" s="9">
+        <v>4.7900432101044998E-2</v>
+      </c>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="9"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
+      <c r="CS21" s="9"/>
+      <c r="CT21" s="9"/>
+      <c r="CU21" s="9"/>
+      <c r="CV21" s="9"/>
+      <c r="CW21" s="9"/>
+      <c r="CX21" s="9"/>
+      <c r="CY21" s="9"/>
+      <c r="CZ21" s="9"/>
+      <c r="DA21" s="9"/>
+      <c r="DB21" s="9"/>
+      <c r="DC21" s="9"/>
+      <c r="DD21" s="9"/>
+      <c r="DE21" s="9"/>
+      <c r="DF21" s="9"/>
+      <c r="DG21" s="9"/>
+      <c r="DH21" s="9"/>
+      <c r="DI21" s="9"/>
+      <c r="DJ21" s="9"/>
+      <c r="DK21" s="9"/>
+      <c r="DL21" s="9"/>
+      <c r="DM21" s="9"/>
+      <c r="DN21" s="9"/>
+      <c r="DO21" s="9"/>
+      <c r="DP21" s="9"/>
+      <c r="DQ21" s="9"/>
+      <c r="DR21" s="9"/>
+      <c r="DS21" s="9"/>
+      <c r="DT21" s="9"/>
+      <c r="DU21" s="9"/>
+      <c r="DV21" s="9"/>
+      <c r="DW21" s="9"/>
+      <c r="DX21" s="9"/>
+      <c r="DY21" s="9"/>
+      <c r="DZ21" s="9"/>
+      <c r="EA21" s="9"/>
+      <c r="EB21" s="9"/>
+      <c r="EC21" s="9"/>
+      <c r="ED21" s="9"/>
+      <c r="EE21" s="9"/>
+      <c r="EF21" s="9"/>
+      <c r="EG21" s="9"/>
+      <c r="EH21" s="9"/>
+      <c r="EI21" s="9"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1452,8 +2218,117 @@
       <c r="AF22" s="9">
         <v>7.0600794304169545E-2</v>
       </c>
+      <c r="AG22" s="9">
+        <v>6.9407438985399139E-2</v>
+      </c>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="9"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+      <c r="CL22" s="9"/>
+      <c r="CM22" s="9"/>
+      <c r="CN22" s="9"/>
+      <c r="CO22" s="9"/>
+      <c r="CP22" s="9"/>
+      <c r="CQ22" s="9"/>
+      <c r="CR22" s="9"/>
+      <c r="CS22" s="9"/>
+      <c r="CT22" s="9"/>
+      <c r="CU22" s="9"/>
+      <c r="CV22" s="9"/>
+      <c r="CW22" s="9"/>
+      <c r="CX22" s="9"/>
+      <c r="CY22" s="9"/>
+      <c r="CZ22" s="9"/>
+      <c r="DA22" s="9"/>
+      <c r="DB22" s="9"/>
+      <c r="DC22" s="9"/>
+      <c r="DD22" s="9"/>
+      <c r="DE22" s="9"/>
+      <c r="DF22" s="9"/>
+      <c r="DG22" s="9"/>
+      <c r="DH22" s="9"/>
+      <c r="DI22" s="9"/>
+      <c r="DJ22" s="9"/>
+      <c r="DK22" s="9"/>
+      <c r="DL22" s="9"/>
+      <c r="DM22" s="9"/>
+      <c r="DN22" s="9"/>
+      <c r="DO22" s="9"/>
+      <c r="DP22" s="9"/>
+      <c r="DQ22" s="9"/>
+      <c r="DR22" s="9"/>
+      <c r="DS22" s="9"/>
+      <c r="DT22" s="9"/>
+      <c r="DU22" s="9"/>
+      <c r="DV22" s="9"/>
+      <c r="DW22" s="9"/>
+      <c r="DX22" s="9"/>
+      <c r="DY22" s="9"/>
+      <c r="DZ22" s="9"/>
+      <c r="EA22" s="9"/>
+      <c r="EB22" s="9"/>
+      <c r="EC22" s="9"/>
+      <c r="ED22" s="9"/>
+      <c r="EE22" s="9"/>
+      <c r="EF22" s="9"/>
+      <c r="EG22" s="9"/>
+      <c r="EH22" s="9"/>
+      <c r="EI22" s="9"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1550,8 +2425,117 @@
       <c r="AF23" s="9">
         <v>4.5507224704188998E-2</v>
       </c>
+      <c r="AG23" s="9">
+        <v>4.686423156443853E-2</v>
+      </c>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+      <c r="CG23" s="9"/>
+      <c r="CH23" s="9"/>
+      <c r="CI23" s="9"/>
+      <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
+      <c r="CL23" s="9"/>
+      <c r="CM23" s="9"/>
+      <c r="CN23" s="9"/>
+      <c r="CO23" s="9"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
+      <c r="CS23" s="9"/>
+      <c r="CT23" s="9"/>
+      <c r="CU23" s="9"/>
+      <c r="CV23" s="9"/>
+      <c r="CW23" s="9"/>
+      <c r="CX23" s="9"/>
+      <c r="CY23" s="9"/>
+      <c r="CZ23" s="9"/>
+      <c r="DA23" s="9"/>
+      <c r="DB23" s="9"/>
+      <c r="DC23" s="9"/>
+      <c r="DD23" s="9"/>
+      <c r="DE23" s="9"/>
+      <c r="DF23" s="9"/>
+      <c r="DG23" s="9"/>
+      <c r="DH23" s="9"/>
+      <c r="DI23" s="9"/>
+      <c r="DJ23" s="9"/>
+      <c r="DK23" s="9"/>
+      <c r="DL23" s="9"/>
+      <c r="DM23" s="9"/>
+      <c r="DN23" s="9"/>
+      <c r="DO23" s="9"/>
+      <c r="DP23" s="9"/>
+      <c r="DQ23" s="9"/>
+      <c r="DR23" s="9"/>
+      <c r="DS23" s="9"/>
+      <c r="DT23" s="9"/>
+      <c r="DU23" s="9"/>
+      <c r="DV23" s="9"/>
+      <c r="DW23" s="9"/>
+      <c r="DX23" s="9"/>
+      <c r="DY23" s="9"/>
+      <c r="DZ23" s="9"/>
+      <c r="EA23" s="9"/>
+      <c r="EB23" s="9"/>
+      <c r="EC23" s="9"/>
+      <c r="ED23" s="9"/>
+      <c r="EE23" s="9"/>
+      <c r="EF23" s="9"/>
+      <c r="EG23" s="9"/>
+      <c r="EH23" s="9"/>
+      <c r="EI23" s="9"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -1648,6 +2632,115 @@
       <c r="AF24" s="9">
         <v>8.161521763767432E-2</v>
       </c>
+      <c r="AG24" s="9">
+        <v>7.9325281204879694E-2</v>
+      </c>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="9"/>
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+      <c r="CL24" s="9"/>
+      <c r="CM24" s="9"/>
+      <c r="CN24" s="9"/>
+      <c r="CO24" s="9"/>
+      <c r="CP24" s="9"/>
+      <c r="CQ24" s="9"/>
+      <c r="CR24" s="9"/>
+      <c r="CS24" s="9"/>
+      <c r="CT24" s="9"/>
+      <c r="CU24" s="9"/>
+      <c r="CV24" s="9"/>
+      <c r="CW24" s="9"/>
+      <c r="CX24" s="9"/>
+      <c r="CY24" s="9"/>
+      <c r="CZ24" s="9"/>
+      <c r="DA24" s="9"/>
+      <c r="DB24" s="9"/>
+      <c r="DC24" s="9"/>
+      <c r="DD24" s="9"/>
+      <c r="DE24" s="9"/>
+      <c r="DF24" s="9"/>
+      <c r="DG24" s="9"/>
+      <c r="DH24" s="9"/>
+      <c r="DI24" s="9"/>
+      <c r="DJ24" s="9"/>
+      <c r="DK24" s="9"/>
+      <c r="DL24" s="9"/>
+      <c r="DM24" s="9"/>
+      <c r="DN24" s="9"/>
+      <c r="DO24" s="9"/>
+      <c r="DP24" s="9"/>
+      <c r="DQ24" s="9"/>
+      <c r="DR24" s="9"/>
+      <c r="DS24" s="9"/>
+      <c r="DT24" s="9"/>
+      <c r="DU24" s="9"/>
+      <c r="DV24" s="9"/>
+      <c r="DW24" s="9"/>
+      <c r="DX24" s="9"/>
+      <c r="DY24" s="9"/>
+      <c r="DZ24" s="9"/>
+      <c r="EA24" s="9"/>
+      <c r="EB24" s="9"/>
+      <c r="EC24" s="9"/>
+      <c r="ED24" s="9"/>
+      <c r="EE24" s="9"/>
+      <c r="EF24" s="9"/>
+      <c r="EG24" s="9"/>
+      <c r="EH24" s="9"/>
+      <c r="EI24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -167,10 +167,13 @@
     <t xml:space="preserve"> 02/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/07/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 03/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/2022</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -770,9 +773,11 @@
         <v>45</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH15" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
@@ -979,7 +984,9 @@
       <c r="AG16" s="9">
         <v>7.780936036325925E-2</v>
       </c>
-      <c r="AH16" s="9"/>
+      <c r="AH16" s="9">
+        <v>8.2472943289847001E-2</v>
+      </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
@@ -1186,7 +1193,9 @@
       <c r="AG17" s="9">
         <v>0.12412314552782777</v>
       </c>
-      <c r="AH17" s="9"/>
+      <c r="AH17" s="9">
+        <v>0.12809892754781815</v>
+      </c>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -1393,7 +1402,9 @@
       <c r="AG18" s="9">
         <v>3.6267365064905466E-2</v>
       </c>
-      <c r="AH18" s="9"/>
+      <c r="AH18" s="9">
+        <v>4.982956541554695E-2</v>
+      </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
@@ -1600,7 +1611,9 @@
       <c r="AG19" s="9">
         <v>4.7439318613832215E-2</v>
       </c>
-      <c r="AH19" s="9"/>
+      <c r="AH19" s="9">
+        <v>4.5164287601227926E-2</v>
+      </c>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -1807,7 +1820,9 @@
       <c r="AG20" s="9">
         <v>6.3097824015853066E-2</v>
       </c>
-      <c r="AH20" s="9"/>
+      <c r="AH20" s="9">
+        <v>6.1222949644359703E-2</v>
+      </c>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
@@ -2014,7 +2029,9 @@
       <c r="AG21" s="9">
         <v>4.7900432101044998E-2</v>
       </c>
-      <c r="AH21" s="9"/>
+      <c r="AH21" s="9">
+        <v>5.8900088613203394E-2</v>
+      </c>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -2221,7 +2238,9 @@
       <c r="AG22" s="9">
         <v>6.9407438985399139E-2</v>
       </c>
-      <c r="AH22" s="9"/>
+      <c r="AH22" s="9">
+        <v>7.152012304537303E-2</v>
+      </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
@@ -2428,7 +2447,9 @@
       <c r="AG23" s="9">
         <v>4.686423156443853E-2</v>
       </c>
-      <c r="AH23" s="9"/>
+      <c r="AH23" s="9">
+        <v>6.2054367201425986E-2</v>
+      </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
@@ -2635,7 +2656,9 @@
       <c r="AG24" s="9">
         <v>7.9325281204879694E-2</v>
       </c>
-      <c r="AH24" s="9"/>
+      <c r="AH24" s="9">
+        <v>8.9467119693776631E-2</v>
+      </c>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -170,10 +170,10 @@
     <t xml:space="preserve"> 03/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 04/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/24/2022</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>46</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -173,7 +173,10 @@
     <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/24/2022</t>
+    <t>Última actualización:  06/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/2022</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -778,7 +783,9 @@
       <c r="AH15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AI15" s="4"/>
+      <c r="AI15" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
@@ -987,7 +994,9 @@
       <c r="AH16" s="9">
         <v>8.2472943289847001E-2</v>
       </c>
-      <c r="AI16" s="9"/>
+      <c r="AI16" s="9">
+        <v>7.767769710550243E-2</v>
+      </c>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
@@ -1196,7 +1205,9 @@
       <c r="AH17" s="9">
         <v>0.12809892754781815</v>
       </c>
-      <c r="AI17" s="9"/>
+      <c r="AI17" s="9">
+        <v>0.11575944654971937</v>
+      </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
@@ -1405,7 +1416,9 @@
       <c r="AH18" s="9">
         <v>4.982956541554695E-2</v>
       </c>
-      <c r="AI18" s="9"/>
+      <c r="AI18" s="9">
+        <v>6.3835681872462358E-2</v>
+      </c>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
@@ -1614,7 +1627,9 @@
       <c r="AH19" s="9">
         <v>4.5164287601227926E-2</v>
       </c>
-      <c r="AI19" s="9"/>
+      <c r="AI19" s="9">
+        <v>4.4146396908388397E-2</v>
+      </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
@@ -1823,7 +1838,9 @@
       <c r="AH20" s="9">
         <v>6.1222949644359703E-2</v>
       </c>
-      <c r="AI20" s="9"/>
+      <c r="AI20" s="9">
+        <v>6.05019915041769E-2</v>
+      </c>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
@@ -2032,7 +2049,9 @@
       <c r="AH21" s="9">
         <v>5.8900088613203394E-2</v>
       </c>
-      <c r="AI21" s="9"/>
+      <c r="AI21" s="9">
+        <v>5.6527529463275883E-2</v>
+      </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
@@ -2241,7 +2260,9 @@
       <c r="AH22" s="9">
         <v>7.152012304537303E-2</v>
       </c>
-      <c r="AI22" s="9"/>
+      <c r="AI22" s="9">
+        <v>7.45586214187548E-2</v>
+      </c>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
@@ -2450,7 +2471,9 @@
       <c r="AH23" s="9">
         <v>6.2054367201425986E-2</v>
       </c>
-      <c r="AI23" s="9"/>
+      <c r="AI23" s="9">
+        <v>3.7812382152481838E-2</v>
+      </c>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
@@ -2659,7 +2682,9 @@
       <c r="AH24" s="9">
         <v>8.9467119693776631E-2</v>
       </c>
-      <c r="AI24" s="9"/>
+      <c r="AI24" s="9">
+        <v>9.7604539666532597E-2</v>
+      </c>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -173,10 +173,13 @@
     <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t>Última actualización:  06/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 05/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  07/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/2022</t>
   </si>
 </sst>
 </file>
@@ -639,9 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -667,7 +668,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -784,9 +785,11 @@
         <v>47</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ15" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -997,7 +1000,9 @@
       <c r="AI16" s="9">
         <v>7.767769710550243E-2</v>
       </c>
-      <c r="AJ16" s="9"/>
+      <c r="AJ16" s="9">
+        <v>8.2614684130646543E-2</v>
+      </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
@@ -1208,7 +1213,9 @@
       <c r="AI17" s="9">
         <v>0.11575944654971937</v>
       </c>
-      <c r="AJ17" s="9"/>
+      <c r="AJ17" s="9">
+        <v>0.12573296404421508</v>
+      </c>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
@@ -1419,7 +1426,9 @@
       <c r="AI18" s="9">
         <v>6.3835681872462358E-2</v>
       </c>
-      <c r="AJ18" s="9"/>
+      <c r="AJ18" s="9">
+        <v>6.0501271755594388E-2</v>
+      </c>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
@@ -1630,7 +1639,9 @@
       <c r="AI19" s="9">
         <v>4.4146396908388397E-2</v>
       </c>
-      <c r="AJ19" s="9"/>
+      <c r="AJ19" s="9">
+        <v>4.0722712796757321E-2</v>
+      </c>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
@@ -1841,7 +1852,9 @@
       <c r="AI20" s="9">
         <v>6.05019915041769E-2</v>
       </c>
-      <c r="AJ20" s="9"/>
+      <c r="AJ20" s="9">
+        <v>5.9290125475320643E-2</v>
+      </c>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
@@ -2052,7 +2065,9 @@
       <c r="AI21" s="9">
         <v>5.6527529463275883E-2</v>
       </c>
-      <c r="AJ21" s="9"/>
+      <c r="AJ21" s="9">
+        <v>6.6715795985952564E-2</v>
+      </c>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
@@ -2263,7 +2278,9 @@
       <c r="AI22" s="9">
         <v>7.45586214187548E-2</v>
       </c>
-      <c r="AJ22" s="9"/>
+      <c r="AJ22" s="9">
+        <v>8.0652088172137315E-2</v>
+      </c>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
@@ -2474,7 +2491,9 @@
       <c r="AI23" s="9">
         <v>3.7812382152481838E-2</v>
       </c>
-      <c r="AJ23" s="9"/>
+      <c r="AJ23" s="9">
+        <v>4.0880416769668804E-2</v>
+      </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
@@ -2685,7 +2704,9 @@
       <c r="AI24" s="9">
         <v>9.7604539666532597E-2</v>
       </c>
-      <c r="AJ24" s="9"/>
+      <c r="AJ24" s="9">
+        <v>0.1079526198061409</v>
+      </c>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -176,10 +176,13 @@
     <t xml:space="preserve"> 05/2022</t>
   </si>
   <si>
-    <t>Última actualización:  07/07/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 06/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  08/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07/2022</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -668,7 +673,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -788,9 +793,11 @@
         <v>48</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK15" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
@@ -1003,7 +1010,9 @@
       <c r="AJ16" s="9">
         <v>8.2614684130646543E-2</v>
       </c>
-      <c r="AK16" s="9"/>
+      <c r="AK16" s="9">
+        <v>8.4642729249823079E-2</v>
+      </c>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
@@ -1216,7 +1225,9 @@
       <c r="AJ17" s="9">
         <v>0.12573296404421508</v>
       </c>
-      <c r="AK17" s="9"/>
+      <c r="AK17" s="9">
+        <v>0.1357375262193008</v>
+      </c>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
@@ -1429,7 +1440,9 @@
       <c r="AJ18" s="9">
         <v>6.0501271755594388E-2</v>
       </c>
-      <c r="AK18" s="9"/>
+      <c r="AK18" s="9">
+        <v>4.5600194789384041E-2</v>
+      </c>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
@@ -1642,7 +1655,9 @@
       <c r="AJ19" s="9">
         <v>4.0722712796757321E-2</v>
       </c>
-      <c r="AK19" s="9"/>
+      <c r="AK19" s="9">
+        <v>3.5647346850926853E-2</v>
+      </c>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
@@ -1855,7 +1870,9 @@
       <c r="AJ20" s="9">
         <v>5.9290125475320643E-2</v>
       </c>
-      <c r="AK20" s="9"/>
+      <c r="AK20" s="9">
+        <v>6.2604231079131267E-2</v>
+      </c>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
@@ -2068,7 +2085,9 @@
       <c r="AJ21" s="9">
         <v>6.6715795985952564E-2</v>
       </c>
-      <c r="AK21" s="9"/>
+      <c r="AK21" s="9">
+        <v>7.4478152468652858E-2</v>
+      </c>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
@@ -2281,7 +2300,9 @@
       <c r="AJ22" s="9">
         <v>8.0652088172137315E-2</v>
       </c>
-      <c r="AK22" s="9"/>
+      <c r="AK22" s="9">
+        <v>7.8391381654638659E-2</v>
+      </c>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
@@ -2494,7 +2515,9 @@
       <c r="AJ23" s="9">
         <v>4.0880416769668804E-2</v>
       </c>
-      <c r="AK23" s="9"/>
+      <c r="AK23" s="9">
+        <v>3.944412994649471E-2</v>
+      </c>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
@@ -2707,7 +2730,9 @@
       <c r="AJ24" s="9">
         <v>0.1079526198061409</v>
       </c>
-      <c r="AK24" s="9"/>
+      <c r="AK24" s="9">
+        <v>0.11048106051017226</v>
+      </c>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -179,10 +179,13 @@
     <t xml:space="preserve"> 06/2022</t>
   </si>
   <si>
-    <t>Última actualización:  08/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 07/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  09/08/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/2022</t>
   </si>
 </sst>
 </file>
@@ -645,9 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:EI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -673,7 +674,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -796,9 +797,11 @@
         <v>49</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL15" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
@@ -1013,7 +1016,9 @@
       <c r="AK16" s="9">
         <v>8.4642729249823079E-2</v>
       </c>
-      <c r="AL16" s="9"/>
+      <c r="AL16" s="9">
+        <v>8.5308964316797242E-2</v>
+      </c>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
@@ -1228,7 +1233,9 @@
       <c r="AK17" s="9">
         <v>0.1357375262193008</v>
       </c>
-      <c r="AL17" s="9"/>
+      <c r="AL17" s="9">
+        <v>0.132783845380952</v>
+      </c>
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
@@ -1443,7 +1450,9 @@
       <c r="AK18" s="9">
         <v>4.5600194789384041E-2</v>
       </c>
-      <c r="AL18" s="9"/>
+      <c r="AL18" s="9">
+        <v>4.1711474224155332E-2</v>
+      </c>
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
@@ -1658,7 +1667,9 @@
       <c r="AK19" s="9">
         <v>3.5647346850926853E-2</v>
       </c>
-      <c r="AL19" s="9"/>
+      <c r="AL19" s="9">
+        <v>4.1154496694072895E-2</v>
+      </c>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
@@ -1873,7 +1884,9 @@
       <c r="AK20" s="9">
         <v>6.2604231079131267E-2</v>
       </c>
-      <c r="AL20" s="9"/>
+      <c r="AL20" s="9">
+        <v>5.0375382333858632E-2</v>
+      </c>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
@@ -2088,7 +2101,9 @@
       <c r="AK21" s="9">
         <v>7.4478152468652858E-2</v>
       </c>
-      <c r="AL21" s="9"/>
+      <c r="AL21" s="9">
+        <v>7.8790020111974668E-2</v>
+      </c>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
@@ -2303,7 +2318,9 @@
       <c r="AK22" s="9">
         <v>7.8391381654638659E-2</v>
       </c>
-      <c r="AL22" s="9"/>
+      <c r="AL22" s="9">
+        <v>8.3135142697257969E-2</v>
+      </c>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
@@ -2518,7 +2535,9 @@
       <c r="AK23" s="9">
         <v>3.944412994649471E-2</v>
       </c>
-      <c r="AL23" s="9"/>
+      <c r="AL23" s="9">
+        <v>4.1241166198882739E-2</v>
+      </c>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
@@ -2733,7 +2752,9 @@
       <c r="AK24" s="9">
         <v>0.11048106051017226</v>
       </c>
-      <c r="AL24" s="9"/>
+      <c r="AL24" s="9">
+        <v>0.10875834087784586</v>
+      </c>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -182,10 +182,16 @@
     <t xml:space="preserve"> 07/2022</t>
   </si>
   <si>
-    <t>Última actualización:  09/08/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 08/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  11/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/2022</t>
   </si>
 </sst>
 </file>
@@ -674,7 +680,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -800,10 +806,14 @@
         <v>50</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -1019,8 +1029,12 @@
       <c r="AL16" s="9">
         <v>8.5308964316797242E-2</v>
       </c>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
+      <c r="AM16" s="9">
+        <v>8.485357241761271E-2</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>8.3836351441985313E-2</v>
+      </c>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
@@ -1236,8 +1250,12 @@
       <c r="AL17" s="9">
         <v>0.132783845380952</v>
       </c>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
+      <c r="AM17" s="9">
+        <v>0.14017038539553761</v>
+      </c>
+      <c r="AN17" s="9">
+        <v>0.14248439702033422</v>
+      </c>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
@@ -1453,8 +1471,12 @@
       <c r="AL18" s="9">
         <v>4.1711474224155332E-2</v>
       </c>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
+      <c r="AM18" s="9">
+        <v>5.4075022667576578E-2</v>
+      </c>
+      <c r="AN18" s="9">
+        <v>6.7777054061598729E-2</v>
+      </c>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
       <c r="AQ18" s="9"/>
@@ -1670,8 +1692,12 @@
       <c r="AL19" s="9">
         <v>4.1154496694072895E-2</v>
       </c>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
+      <c r="AM19" s="9">
+        <v>3.0089083063452593E-2</v>
+      </c>
+      <c r="AN19" s="9">
+        <v>1.107191412602071E-2</v>
+      </c>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
@@ -1887,8 +1913,12 @@
       <c r="AL20" s="9">
         <v>5.0375382333858632E-2</v>
       </c>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
+      <c r="AM20" s="9">
+        <v>3.4400959773144724E-2</v>
+      </c>
+      <c r="AN20" s="9">
+        <v>5.2413338581379865E-2</v>
+      </c>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
@@ -2104,8 +2134,12 @@
       <c r="AL21" s="9">
         <v>7.8790020111974668E-2</v>
       </c>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
+      <c r="AM21" s="9">
+        <v>7.7067054333999518E-2</v>
+      </c>
+      <c r="AN21" s="9">
+        <v>7.5790518291307674E-2</v>
+      </c>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
@@ -2321,8 +2355,12 @@
       <c r="AL22" s="9">
         <v>8.3135142697257969E-2</v>
       </c>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
+      <c r="AM22" s="9">
+        <v>8.2491671050324289E-2</v>
+      </c>
+      <c r="AN22" s="9">
+        <v>8.026566127314938E-2</v>
+      </c>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
@@ -2538,8 +2576,12 @@
       <c r="AL23" s="9">
         <v>4.1241166198882739E-2</v>
       </c>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
+      <c r="AM23" s="9">
+        <v>3.7741164496224E-2</v>
+      </c>
+      <c r="AN23" s="9">
+        <v>3.9603335017685648E-2</v>
+      </c>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
@@ -2755,8 +2797,12 @@
       <c r="AL24" s="9">
         <v>0.10875834087784586</v>
       </c>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
+      <c r="AM24" s="9">
+        <v>0.11078323706690596</v>
+      </c>
+      <c r="AN24" s="9">
+        <v>0.12471079557318876</v>
+      </c>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -185,13 +185,19 @@
     <t xml:space="preserve"> 08/2022</t>
   </si>
   <si>
-    <t>Última actualización:  11/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> 10/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  01/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/2022</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -809,13 +815,17 @@
         <v>51</v>
       </c>
       <c r="AM15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AN15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
+      <c r="AO15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
@@ -1035,8 +1045,12 @@
       <c r="AN16" s="9">
         <v>8.3836351441985313E-2</v>
       </c>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
+      <c r="AO16" s="9">
+        <v>8.0590277184042769E-2</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>8.0944192856413189E-2</v>
+      </c>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
@@ -1256,8 +1270,12 @@
       <c r="AN17" s="9">
         <v>0.14248439702033422</v>
       </c>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
+      <c r="AO17" s="9">
+        <v>0.1310558512751252</v>
+      </c>
+      <c r="AP17" s="9">
+        <v>0.12941666273899854</v>
+      </c>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
@@ -1477,8 +1495,12 @@
       <c r="AN18" s="9">
         <v>6.7777054061598729E-2</v>
       </c>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
+      <c r="AO18" s="9">
+        <v>7.2527759147477555E-2</v>
+      </c>
+      <c r="AP18" s="9">
+        <v>6.8830374680354245E-2</v>
+      </c>
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
@@ -1698,8 +1720,12 @@
       <c r="AN19" s="9">
         <v>1.107191412602071E-2</v>
       </c>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
+      <c r="AO19" s="9">
+        <v>7.2530672395731965E-3</v>
+      </c>
+      <c r="AP19" s="9">
+        <v>1.4430377472078204E-2</v>
+      </c>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
@@ -1919,8 +1945,12 @@
       <c r="AN20" s="9">
         <v>5.2413338581379865E-2</v>
       </c>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
+      <c r="AO20" s="9">
+        <v>6.1960302093178932E-2</v>
+      </c>
+      <c r="AP20" s="9">
+        <v>7.1698804561901586E-2</v>
+      </c>
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
@@ -2140,8 +2170,12 @@
       <c r="AN21" s="9">
         <v>7.5790518291307674E-2</v>
       </c>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
+      <c r="AO21" s="9">
+        <v>8.2007786178178721E-2</v>
+      </c>
+      <c r="AP21" s="9">
+        <v>8.8222090538526476E-2</v>
+      </c>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
@@ -2361,8 +2395,12 @@
       <c r="AN22" s="9">
         <v>8.026566127314938E-2</v>
       </c>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
+      <c r="AO22" s="9">
+        <v>7.8538359788359768E-2</v>
+      </c>
+      <c r="AP22" s="9">
+        <v>6.7380000859438738E-2</v>
+      </c>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
@@ -2582,8 +2620,12 @@
       <c r="AN23" s="9">
         <v>3.9603335017685648E-2</v>
       </c>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
+      <c r="AO23" s="9">
+        <v>4.3824701195219307E-2</v>
+      </c>
+      <c r="AP23" s="9">
+        <v>3.721646622668362E-2</v>
+      </c>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
@@ -2803,8 +2845,12 @@
       <c r="AN24" s="9">
         <v>0.12471079557318876</v>
       </c>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
+      <c r="AO24" s="9">
+        <v>0.12387249466245187</v>
+      </c>
+      <c r="AP24" s="9">
+        <v>0.1283833935375327</v>
+      </c>
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -191,13 +191,16 @@
     <t xml:space="preserve"> 10/2022</t>
   </si>
   <si>
-    <t>Última actualización:  01/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> 12/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/2023</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -821,12 +824,14 @@
         <v>53</v>
       </c>
       <c r="AO15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AP15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ15" s="4"/>
+      <c r="AQ15" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -1051,7 +1056,9 @@
       <c r="AP16" s="9">
         <v>8.0944192856413189E-2</v>
       </c>
-      <c r="AQ16" s="9"/>
+      <c r="AQ16" s="9">
+        <v>8.3862770012706589E-2</v>
+      </c>
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
@@ -1276,7 +1283,9 @@
       <c r="AP17" s="9">
         <v>0.12941666273899854</v>
       </c>
-      <c r="AQ17" s="9"/>
+      <c r="AQ17" s="9">
+        <v>0.12811426617553368</v>
+      </c>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
@@ -1501,7 +1510,9 @@
       <c r="AP18" s="9">
         <v>6.8830374680354245E-2</v>
       </c>
-      <c r="AQ18" s="9"/>
+      <c r="AQ18" s="9">
+        <v>0.10404889666848405</v>
+      </c>
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
@@ -1726,7 +1737,9 @@
       <c r="AP19" s="9">
         <v>1.4430377472078204E-2</v>
       </c>
-      <c r="AQ19" s="9"/>
+      <c r="AQ19" s="9">
+        <v>1.6593019303361656E-2</v>
+      </c>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
@@ -1951,7 +1964,9 @@
       <c r="AP20" s="9">
         <v>7.1698804561901586E-2</v>
       </c>
-      <c r="AQ20" s="9"/>
+      <c r="AQ20" s="9">
+        <v>7.5471351559845301E-2</v>
+      </c>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
@@ -2176,7 +2191,9 @@
       <c r="AP21" s="9">
         <v>8.8222090538526476E-2</v>
       </c>
-      <c r="AQ21" s="9"/>
+      <c r="AQ21" s="9">
+        <v>9.6544960099861798E-2</v>
+      </c>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
@@ -2401,7 +2418,9 @@
       <c r="AP22" s="9">
         <v>6.7380000859438738E-2</v>
       </c>
-      <c r="AQ22" s="9"/>
+      <c r="AQ22" s="9">
+        <v>6.281732374689053E-2</v>
+      </c>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="9"/>
@@ -2626,7 +2645,9 @@
       <c r="AP23" s="9">
         <v>3.721646622668362E-2</v>
       </c>
-      <c r="AQ23" s="9"/>
+      <c r="AQ23" s="9">
+        <v>3.9957825299413274E-2</v>
+      </c>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
@@ -2851,7 +2872,9 @@
       <c r="AP24" s="9">
         <v>0.1283833935375327</v>
       </c>
-      <c r="AQ24" s="9"/>
+      <c r="AQ24" s="9">
+        <v>0.13826616031687711</v>
+      </c>
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -197,10 +197,10 @@
     <t xml:space="preserve"> 12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  02/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/2023</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/23/2023</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>

--- a/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -197,10 +197,13 @@
     <t xml:space="preserve"> 12/2022</t>
   </si>
   <si>
+    <t>Última actualización:  03/09/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 01/2023</t>
   </si>
   <si>
-    <t>Última actualización:  02/23/2023</t>
+    <t xml:space="preserve"> 02/2023</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.25">
@@ -830,9 +833,11 @@
         <v>55</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR15" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
@@ -1059,7 +1064,9 @@
       <c r="AQ16" s="9">
         <v>8.3862770012706589E-2</v>
       </c>
-      <c r="AR16" s="9"/>
+      <c r="AR16" s="9">
+        <v>7.987994533824061E-2</v>
+      </c>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
@@ -1286,7 +1293,9 @@
       <c r="AQ17" s="9">
         <v>0.12811426617553368</v>
       </c>
-      <c r="AR17" s="9"/>
+      <c r="AR17" s="9">
+        <v>0.11978115576154269</v>
+      </c>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -1513,7 +1522,9 @@
       <c r="AQ18" s="9">
         <v>0.10404889666848405</v>
       </c>
-      <c r="AR18" s="9"/>
+      <c r="AR18" s="9">
+        <v>0.10851563465579028</v>
+      </c>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -1740,7 +1751,9 @@
       <c r="AQ19" s="9">
         <v>1.6593019303361656E-2</v>
       </c>
-      <c r="AR19" s="9"/>
+      <c r="AR19" s="9">
+        <v>1.5613935703158166E-2</v>
+      </c>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -1967,7 +1980,9 @@
       <c r="AQ20" s="9">
         <v>7.5471351559845301E-2</v>
       </c>
-      <c r="AR20" s="9"/>
+      <c r="AR20" s="9">
+        <v>8.8584701259593723E-2</v>
+      </c>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
@@ -2194,7 +2209,9 @@
       <c r="AQ21" s="9">
         <v>9.6544960099861798E-2</v>
       </c>
-      <c r="AR21" s="9"/>
+      <c r="AR21" s="9">
+        <v>9.8335214446952701E-2</v>
+      </c>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
       <c r="AU21" s="9"/>
@@ -2421,7 +2438,9 @@
       <c r="AQ22" s="9">
         <v>6.281732374689053E-2</v>
       </c>
-      <c r="AR22" s="9"/>
+      <c r="AR22" s="9">
+        <v>5.7494866529774091E-2</v>
+      </c>
       <c r="AS22" s="9"/>
       <c r="AT22" s="9"/>
       <c r="AU22" s="9"/>
@@ -2648,7 +2667,9 @@
       <c r="AQ23" s="9">
         <v>3.9957825299413274E-2</v>
       </c>
-      <c r="AR23" s="9"/>
+      <c r="AR23" s="9">
+        <v>3.8877913161635247E-2</v>
+      </c>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
       <c r="AU23" s="9"/>
@@ -2875,7 +2896,9 @@
       <c r="AQ24" s="9">
         <v>0.13826616031687711</v>
       </c>
-      <c r="AR24" s="9"/>
+      <c r="AR24" s="9">
+        <v>0.12483174956275045</v>
+      </c>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9"/>
       <c r="AU24" s="9"/>
